--- a/class_0614/test_case_0614.xlsx
+++ b/class_0614/test_case_0614.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mantis/Documents/Test-demo/class_0614/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74759F32-910A-AE4F-89F7-5DEC996F57E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74B4E080-10AC-D74C-9916-09C1B1F070C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="27560" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>case_id</t>
   </si>
@@ -46,73 +46,55 @@
     <t>result(pass/fail）</t>
   </si>
   <si>
-    <t>reason(原因)</t>
-  </si>
-  <si>
     <t>正常的请求</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>http://v.juhe.cn/laohuangli/d</t>
+  </si>
+  <si>
+    <t>{'date':'2018-09-11','key':'8a3ec3b083789ba147be957a301a2b3f'}</t>
+  </si>
+  <si>
+    <t>successed</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>错误的请求key!</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>post</t>
+    <t>{'date':'2018-09-11','key':'a8f2732319cf0ad3cce8ec6ef7aa4f34'}</t>
+  </si>
+  <si>
+    <t>错误的请求KEY!!</t>
   </si>
   <si>
     <t>{'date':'2018-09-11','key':'a8f2732319cf0ad3cce8ec6ef7aa4f35'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的请求key!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入key</t>
+  </si>
+  <si>
+    <t>错误的请求KEY!</t>
+  </si>
+  <si>
+    <t>不输入data</t>
+  </si>
+  <si>
+    <t>{'date':'','key':'8a3ec3b083789ba147be957a301a2b3f'}</t>
+  </si>
+  <si>
+    <t>日志不能为空</t>
+  </si>
+  <si>
+    <t>错误的请求key</t>
     <rPh sb="0" eb="2">
-      <t>bu'shu'r</t>
+      <t>cuo'w</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入data</t>
-    <rPh sb="0" eb="2">
-      <t>bu'shu'r</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'date':'2018-09-11','key':'8a3ec3b083789ba147be957a301a2b3f'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>successed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'date':'2018-09-11','key':'a8f2732319cf0ad3cce8ec6ef7aa4f34'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的请求KEY!!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的请求KEY!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'date':'','key':'8a3ec3b083789ba147be957a301a2b3f'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志不能为空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://v.juhe.cn/laohuangli/d</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -572,13 +554,13 @@
     <col min="4" max="4" width="38.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="43" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
+    <col min="9" max="10" width="10.83203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="28" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,114 +585,119 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1">
+    <row r="2" spans="1:8" ht="105" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="48" customHeight="1">
+    <row r="3" spans="1:8" ht="105" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="48" customHeight="1">
+    <row r="4" spans="1:8" ht="105" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="48" customHeight="1">
+    <row r="5" spans="1:8" ht="105" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="49" customHeight="1">
+    <row r="6" spans="1:8" ht="105" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>21</v>
@@ -718,15 +705,18 @@
       <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3:D6" r:id="rId2" display="http://v.juhe.cn/laohuangli/d" xr:uid="{D496E541-2CB1-D849-8DCD-7B5E304D1E31}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/class_0614/test_case_0614.xlsx
+++ b/class_0614/test_case_0614.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mantis/Documents/Test-demo/class_0614/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74B4E080-10AC-D74C-9916-09C1B1F070C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27560" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17040" windowWidth="27560" xWindow="1020" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data" sheetId="1" r:id="rId1"/>
+    <sheet name="test_data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>case_id</t>
   </si>
@@ -55,25 +49,37 @@
     <t>http://v.juhe.cn/laohuangli/d</t>
   </si>
   <si>
-    <t>{'date':'2018-09-11','key':'8a3ec3b083789ba147be957a301a2b3f'}</t>
+    <t>{'date':'2018-09-11','key':'722d7fd7ab0b8702cdffb8851a15f977'}</t>
   </si>
   <si>
     <t>successed</t>
   </si>
   <si>
+    <t>{'resultcode': '101', 'reason': '错误的请求KEY!!!', 'result': None, 'error_code': 10001}</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>错误的请求key!</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{'date':'2018-09-11','key':'a8f2732319cf0ad3cce8ec6ef7aa4f34'}</t>
+  </si>
+  <si>
+    <t>错误的请求KEY!!</t>
+  </si>
+  <si>
+    <t>{'resultcode': '101', 'reason': '错误的请求KEY!!', 'result': None, 'error_code': 10001}</t>
+  </si>
+  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>错误的请求key!</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{'date':'2018-09-11','key':'a8f2732319cf0ad3cce8ec6ef7aa4f34'}</t>
-  </si>
-  <si>
-    <t>错误的请求KEY!!</t>
+    <t>错误的请求key</t>
   </si>
   <si>
     <t>{'date':'2018-09-11','key':'a8f2732319cf0ad3cce8ec6ef7aa4f35'}</t>
@@ -85,76 +91,70 @@
     <t>不输入data</t>
   </si>
   <si>
-    <t>{'date':'','key':'8a3ec3b083789ba147be957a301a2b3f'}</t>
+    <t>{'date':'','key':'722d7fd7ab0b8702cdffb8851a15f977'}</t>
   </si>
   <si>
     <t>日志不能为空</t>
-  </si>
-  <si>
-    <t>错误的请求key</t>
-    <rPh sb="0" eb="2">
-      <t>cuo'w</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="4"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,62 +184,57 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -539,28 +534,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="G2:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="7" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="7"/>
+    <col customWidth="1" max="1" min="1" style="8" width="10.83203125"/>
+    <col customWidth="1" max="2" min="2" style="9" width="15"/>
+    <col customWidth="1" max="3" min="3" style="8" width="10.83203125"/>
+    <col customWidth="1" max="4" min="4" style="9" width="38.6640625"/>
+    <col customWidth="1" max="5" min="5" style="9" width="48.33203125"/>
+    <col customWidth="1" max="6" min="6" style="7" width="10.83203125"/>
+    <col customWidth="1" max="7" min="7" style="7" width="53.33203125"/>
+    <col customWidth="1" max="8" min="8" style="7" width="15.33203125"/>
+    <col customWidth="1" max="31" min="9" style="7" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="32" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="28" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="28" r="1" s="2" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +585,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" customHeight="1">
-      <c r="A2" s="3">
+    <row customHeight="1" ht="105" r="2" s="12" spans="1:8">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -596,7 +595,7 @@
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -606,14 +605,14 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="105" customHeight="1">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="105" r="3" s="12" spans="1:8">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -632,44 +631,44 @@
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="105" customHeight="1">
-      <c r="A4" s="3">
+    <row customHeight="1" ht="105" r="4" s="12" spans="1:8">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="105" customHeight="1">
-      <c r="A5" s="3">
+    <row customHeight="1" ht="105" r="5" s="12" spans="1:8">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -678,20 +677,24 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="105" customHeight="1">
-      <c r="A6" s="3">
+    <row customHeight="1" ht="105" r="6" s="12" spans="1:8">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -700,25 +703,24 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>